--- a/Excel/镇魂街/collect.收集表.xlsx
+++ b/Excel/镇魂街/collect.收集表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="收集组" sheetId="26" r:id="rId2"/>
-    <sheet name="收集表" sheetId="27" r:id="rId3"/>
+    <sheet name="收集子项" sheetId="27" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>sheet名</t>
   </si>
@@ -50,6 +50,491 @@
   </si>
   <si>
     <t>常驻内存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>RewardQuality</t>
+  </si>
+  <si>
+    <t>Prop[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[2].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[2].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[3].Id</t>
+  </si>
+  <si>
+    <t>Prop[3].Val</t>
+  </si>
+  <si>
+    <t>Award[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[2].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[2].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[3].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[3].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪子逍遥</t>
+  </si>
+  <si>
+    <t>一代剑神</t>
+  </si>
+  <si>
+    <t>铁血豪侠</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID2</t>
+  </si>
+  <si>
+    <t>属性值2</t>
+  </si>
+  <si>
+    <t>属性ID3</t>
+  </si>
+  <si>
+    <t>属性值3</t>
+  </si>
+  <si>
+    <t>奖励ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励ID2</t>
+  </si>
+  <si>
+    <t>奖励值2</t>
+  </si>
+  <si>
+    <t>奖励ID3</t>
+  </si>
+  <si>
+    <t>奖励值3</t>
+  </si>
+  <si>
+    <t>attr_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkRate</t>
+  </si>
+  <si>
+    <t>DefRate</t>
+  </si>
+  <si>
+    <t>HPRate</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
+    <t>神器高级材料</t>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>AttrDesc</t>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>黑尔·坎普</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具ID2</t>
+  </si>
+  <si>
+    <t>消耗数量2</t>
+  </si>
+  <si>
+    <t>消耗道具ID3</t>
+  </si>
+  <si>
+    <t>消耗数量3</t>
+  </si>
+  <si>
+    <t>Cost[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[2].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[2].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[3].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[3].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[2].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[2].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[3].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop[3].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵碎片</t>
+  </si>
+  <si>
+    <t>冰中级</t>
+  </si>
+  <si>
+    <t>曹玄亮碎片</t>
+  </si>
+  <si>
+    <t>冰高级</t>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+  </si>
+  <si>
+    <t>火中级</t>
+  </si>
+  <si>
+    <t>项昆仑碎片</t>
+  </si>
+  <si>
+    <t>火高级</t>
+  </si>
+  <si>
+    <t>刘羽禅碎片</t>
+  </si>
+  <si>
+    <t>雷中级</t>
+  </si>
+  <si>
+    <t>红莲·缇娜碎片</t>
+  </si>
+  <si>
+    <t>雷高级</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+  </si>
+  <si>
+    <t>风中级</t>
+  </si>
+  <si>
+    <t>黑尔·坎普碎片</t>
+  </si>
+  <si>
+    <t>风高级</t>
+  </si>
+  <si>
+    <t>北落师门碎片</t>
+  </si>
+  <si>
+    <t>土中级</t>
+  </si>
+  <si>
+    <t>AtkExt</t>
+  </si>
+  <si>
+    <t>DefExt</t>
+  </si>
+  <si>
+    <t>HPExt</t>
+  </si>
+  <si>
+    <t>%s属性:%s</t>
+  </si>
+  <si>
+    <t>收集组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集子项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>collect_group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>collect_mission</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId,HelpCol,Order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId,HelpCol,Order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +736,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -264,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -559,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,43 +1089,79 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -652,12 +1176,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -666,12 +1509,706 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="19" width="48.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="3">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" s="3">
+        <v>200</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>101</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="3">
+        <v>20</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="3">
+        <v>200</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="3">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" s="3">
+        <v>200</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="3">
+        <v>20</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="3">
+        <v>200</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="3">
+        <v>20</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="3">
+        <v>20</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>103</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="3">
+        <v>20</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="3">
+        <v>20</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" s="3">
+        <v>200</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>103</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="3">
+        <v>20</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/镇魂街/collect.收集表.xlsx
+++ b/Excel/镇魂街/collect.收集表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
   <si>
     <t>sheet名</t>
   </si>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>属性ID1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -256,10 +252,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗道具ID1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -349,10 +341,6 @@
   </si>
   <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -535,6 +523,45 @@
   </si>
   <si>
     <t>collect.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_group_old.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_mission_old.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1047,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1090,17 +1117,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -1110,17 +1137,17 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="b">
@@ -1130,14 +1157,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1148,14 +1175,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1163,6 +1190,44 @@
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1179,7 +1244,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,10 +1267,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -1252,49 +1317,49 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
@@ -1302,10 +1367,10 @@
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1314,45 +1379,45 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3">
         <v>101</v>
@@ -1364,37 +1429,37 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3">
         <v>0.1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3">
         <v>0.05</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3">
         <v>0.05</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="3">
         <v>10000</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="3">
         <v>5</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="3">
         <v>3</v>
@@ -1402,7 +1467,7 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3">
         <v>102</v>
@@ -1414,37 +1479,37 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3">
         <v>0.05</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="3">
         <v>0.1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="3">
         <v>0.05</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="3">
         <v>20000</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="3">
         <v>5</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="3">
         <v>3</v>
@@ -1452,7 +1517,7 @@
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3">
         <v>103</v>
@@ -1464,37 +1529,37 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3">
         <v>0.05</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3">
         <v>0.05</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3">
         <v>0.1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="3">
         <v>30000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="3">
         <v>5</v>
@@ -1511,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19:N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1538,179 +1603,179 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>93</v>
-      </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -1721,25 +1786,25 @@
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H4" s="3">
         <v>5</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J4" s="3">
         <v>10</v>
@@ -1747,25 +1812,25 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="3">
         <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P4" s="3">
         <v>10</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R4" s="3">
         <v>200</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -1776,25 +1841,25 @@
         <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" s="3">
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J5" s="3">
         <v>10</v>
@@ -1802,25 +1867,25 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N5" s="3">
         <v>20</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P5" s="3">
         <v>10</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R5" s="3">
         <v>200</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -1831,25 +1896,25 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J6" s="3">
         <v>10</v>
@@ -1857,25 +1922,25 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N6" s="3">
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P6" s="3">
         <v>10</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R6" s="3">
         <v>200</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -1886,25 +1951,25 @@
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H7" s="3">
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J7" s="3">
         <v>10</v>
@@ -1912,25 +1977,25 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N7" s="3">
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="3">
         <v>10</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R7" s="3">
         <v>200</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -1941,25 +2006,25 @@
         <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>10</v>
@@ -1967,25 +2032,25 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N8" s="3">
         <v>20</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P8" s="3">
         <v>10</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -1996,25 +2061,25 @@
         <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H9" s="3">
         <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J9" s="3">
         <v>10</v>
@@ -2022,25 +2087,25 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N9" s="3">
         <v>20</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P9" s="3">
         <v>10</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -2051,25 +2116,25 @@
         <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H10" s="3">
         <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J10" s="3">
         <v>10</v>
@@ -2077,25 +2142,25 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N10" s="3">
         <v>20</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P10" s="3">
         <v>10</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -2106,25 +2171,25 @@
         <v>103</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11" s="3">
         <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J11" s="3">
         <v>10</v>
@@ -2132,25 +2197,25 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N11" s="3">
         <v>20</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P11" s="3">
         <v>10</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R11" s="3">
         <v>200</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -2161,25 +2226,25 @@
         <v>103</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3">
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J12" s="3">
         <v>10</v>
@@ -2187,25 +2252,25 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N12" s="3">
         <v>20</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P12" s="3">
         <v>10</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/collect.收集表.xlsx
+++ b/Excel/镇魂街/collect.收集表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1130,9 +1130,7 @@
         <v>124</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1150,9 +1148,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -1168,9 +1164,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,9 +1180,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1206,9 +1198,7 @@
         <v>143</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1225,9 +1215,7 @@
         <v>139</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1576,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
